--- a/db_data_insert/测试数据/入院登记.xlsx
+++ b/db_data_insert/测试数据/入院登记.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\a桌面\学习\大三下\信息系统分析与设计\信息系统\test数据\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BUAA\Courses\经管课程\信息系统分析与设计\MIS_Project\HIS_void\db_data_insert\测试数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52560206-829C-49A3-ABB6-729617A52AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14104B50-2664-429B-A500-17CA2AA2323D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="15196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>挂号编号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -84,6 +84,10 @@
   </si>
   <si>
     <t>payment_status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂号记录编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -94,7 +98,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -447,278 +451,277 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="5" width="8.86328125" style="2"/>
-    <col min="6" max="6" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.86328125" style="2"/>
-    <col min="9" max="9" width="11.46484375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.73046875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="8.88671875" style="2"/>
+    <col min="6" max="6" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" style="2" customWidth="1"/>
+    <col min="8" max="9" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="4">
+        <v>44358.541666666664</v>
+      </c>
+      <c r="B2" s="2">
+        <v>71</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="2">
+        <v>20</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>2</v>
+      </c>
+      <c r="L2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="4">
+        <v>44358.333333333336</v>
+      </c>
+      <c r="B3" s="2">
+        <v>72</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2">
+        <v>20</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>2</v>
+      </c>
+      <c r="L3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="4">
+        <v>44357.541666666664</v>
+      </c>
+      <c r="B4" s="2">
+        <v>73</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>2</v>
+      </c>
+      <c r="L4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="4">
+        <v>44357.541666666664</v>
+      </c>
+      <c r="B5" s="2">
+        <v>74</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="2">
+      <c r="F5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
         <v>2</v>
       </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
-        <v>44358.541666666664</v>
-      </c>
-      <c r="G2" s="2">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2">
-        <v>20</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4">
-        <v>44358.333333333336</v>
-      </c>
-      <c r="G3" s="2">
-        <v>3</v>
-      </c>
-      <c r="H3" s="2">
-        <v>20</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2</v>
-      </c>
-      <c r="F4" s="4">
-        <v>44357.541666666664</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="L5" s="3">
         <v>4</v>
       </c>
-      <c r="H4" s="2">
-        <v>10</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="2">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="2">
-        <v>3</v>
-      </c>
-      <c r="F5" s="4">
-        <v>44357.541666666664</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2">
-        <v>15</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B6" s="3"/>
-      <c r="F6" s="4"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B7" s="3"/>
-      <c r="F7" s="4"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B8" s="3"/>
-      <c r="F8" s="4"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B9" s="3"/>
-      <c r="F9" s="4"/>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B10" s="3"/>
-      <c r="F10" s="4"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B11" s="3"/>
-      <c r="F11" s="4"/>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B12" s="3"/>
-      <c r="F12" s="4"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B13" s="3"/>
-      <c r="F13" s="4"/>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B14" s="3"/>
-      <c r="F14" s="4"/>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B15" s="3"/>
-      <c r="F15" s="4"/>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B16" s="3"/>
-      <c r="F16" s="4"/>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="3"/>
-      <c r="F17" s="4"/>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="3"/>
-      <c r="F18" s="4"/>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="3"/>
-      <c r="F19" s="4"/>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="3"/>
-      <c r="F20" s="4"/>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="3"/>
-      <c r="F21" s="4"/>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="F22" s="4"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="4"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="4"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="4"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="4"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="4"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="4"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="4"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="4"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="4"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="4"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="4"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="4"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="4"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="4"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="4"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="4"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
